--- a/Modified Data/EEE/EEE_only_periods.xlsx
+++ b/Modified Data/EEE/EEE_only_periods.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLSID\Mukesh\Time_Table_Management_Using_GenAI\Modified Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VLSID\Mukesh\Time_Table_Management_Using_GenAI\Modified Data\EEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07475A39-A23A-489B-951D-ED52F343F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670B9E18-BF63-4695-9DA8-2A4DF69D90A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BD5DB5C-2764-4EF3-9DE9-E11A660616B7}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{2BD5DB5C-2764-4EF3-9DE9-E11A660616B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="105">
   <si>
     <t>BLOCK</t>
   </si>
@@ -349,16 +349,13 @@
   </si>
   <si>
     <t>PENDING-EM-LAB</t>
-  </si>
-  <si>
-    <t>AB-2-T9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,26 +371,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial1"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -529,293 +511,57 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,1296 +879,1153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CFEF93-1082-4F7D-B52F-A1306C4E0796}">
-  <dimension ref="A1:AU9"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:47">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>60</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+      <c r="X2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AG2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AG2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AO2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AO2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:47">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>60</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="S3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3" s="18" t="s">
+      <c r="X3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AB3" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AB3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AD3" s="17" t="s">
+      <c r="AD3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AF3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AG3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AI3" s="20" t="s">
+      <c r="AI3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="20" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AK3" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL3" s="20" t="s">
+      <c r="AK3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AM3" s="24" t="s">
+      <c r="AM3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" s="24" t="s">
+      <c r="AN3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AO3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ3" s="20" t="s">
+      <c r="AO3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="AR3" s="20" t="s">
+      <c r="AR3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AS3" s="23" t="s">
+      <c r="AS3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AT3" s="24" t="s">
+      <c r="AT3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AU3" s="24" t="s">
+      <c r="AU3" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:47">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="11">
         <v>60</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="30" t="s">
+      <c r="J4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="X4" s="36" t="s">
+      <c r="X4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="AC4" s="36" t="s">
+      <c r="AC4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AD4" s="36" t="s">
+      <c r="AD4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AE4" s="39" t="s">
+      <c r="AE4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AF4" s="39" t="s">
+      <c r="AF4" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AG4" s="40" t="s">
+      <c r="AG4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AH4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AI4" s="41" t="s">
+      <c r="AI4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AJ4" s="41" t="s">
+      <c r="AJ4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AK4" s="41" t="s">
+      <c r="AK4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AL4" s="43" t="s">
+      <c r="AL4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AM4" s="43" t="s">
+      <c r="AM4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AN4" s="43" t="s">
+      <c r="AN4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AO4" s="42" t="s">
+      <c r="AO4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AP4" s="42" t="s">
+      <c r="AP4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AQ4" s="42" t="s">
+      <c r="AQ4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AR4" s="42" t="s">
+      <c r="AR4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AS4" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT4" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU4" s="44" t="s">
+      <c r="AS4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU4" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:47">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="11">
         <v>60</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="53" t="s">
+      <c r="Q5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="53" t="s">
+      <c r="R5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="S5" s="53" t="s">
+      <c r="S5" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="51" t="s">
+      <c r="T5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="51" t="s">
+      <c r="U5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="W5" s="52" t="s">
+      <c r="W5" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="54" t="s">
+      <c r="X5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Y5" s="54" t="s">
+      <c r="Y5" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="58" t="s">
+      <c r="Z5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AB5" s="56" t="s">
+      <c r="AB5" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AC5" s="57" t="s">
+      <c r="AC5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AD5" s="55" t="s">
+      <c r="AD5" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AE5" s="60"/>
-      <c r="AF5" s="60" t="s">
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AG5" s="60" t="s">
+      <c r="AG5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="AH5" s="60" t="s">
+      <c r="AH5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AI5" s="59" t="s">
+      <c r="AI5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AJ5" s="59" t="s">
+      <c r="AJ5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AK5" s="61" t="s">
+      <c r="AK5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AL5" s="63" t="s">
+      <c r="AL5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AM5" s="63" t="s">
+      <c r="AM5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AN5" s="63" t="s">
+      <c r="AN5" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AO5" s="62" t="s">
+      <c r="AO5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AP5" s="62" t="s">
+      <c r="AP5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AQ5" s="62" t="s">
+      <c r="AQ5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AR5" s="62" t="s">
+      <c r="AR5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AS5" s="64" t="s">
+      <c r="AS5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AT5" s="64" t="s">
+      <c r="AT5" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="AU5" s="64" t="s">
+      <c r="AU5" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:47">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="11">
         <v>60</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="68" t="s">
+      <c r="J6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N6" s="68" t="s">
+      <c r="N6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="68" t="s">
+      <c r="O6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="68" t="s">
+      <c r="P6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="Q6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="T6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="70" t="s">
+      <c r="Q6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="W6" s="70" t="s">
+      <c r="W6" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="X6" s="71" t="s">
+      <c r="X6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Y6" s="71" t="s">
+      <c r="Y6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Z6" s="72" t="s">
+      <c r="Z6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="72" t="s">
+      <c r="AA6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AB6" s="71" t="s">
+      <c r="AB6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AC6" s="71" t="s">
+      <c r="AC6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AD6" s="71" t="s">
+      <c r="AD6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="AE6" s="74" t="s">
+      <c r="AE6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF6" s="74" t="s">
+      <c r="AF6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AG6" s="74" t="s">
+      <c r="AG6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AH6" s="73" t="s">
+      <c r="AH6" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="73" t="s">
+      <c r="AI6" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="AJ6" s="76" t="s">
+      <c r="AJ6" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="AK6" s="75" t="s">
+      <c r="AK6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AL6" s="79" t="s">
+      <c r="AL6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AM6" s="79" t="s">
+      <c r="AM6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AN6" s="79" t="s">
+      <c r="AN6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AO6" s="77" t="s">
+      <c r="AO6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AP6" s="77" t="s">
+      <c r="AP6" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="AQ6" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR6" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS6" s="80" t="s">
+      <c r="AQ6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AT6" s="80" t="s">
+      <c r="AT6" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AU6" s="80" t="s">
+      <c r="AU6" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:47">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="11">
         <v>60</v>
       </c>
-      <c r="F7" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="82" t="s">
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="87" t="s">
+      <c r="K7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="87" t="s">
+      <c r="L7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="87" t="s">
+      <c r="O7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="P7" s="85" t="s">
+      <c r="P7" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q7" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="S7" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" s="90" t="s">
+      <c r="Q7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="U7" s="90" t="s">
+      <c r="U7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="V7" s="90" t="s">
+      <c r="V7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="W7" s="90" t="s">
+      <c r="W7" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="X7" s="93" t="s">
+      <c r="X7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Y7" s="93" t="s">
+      <c r="Y7" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Z7" s="98" t="s">
+      <c r="Z7" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AA7" s="96" t="s">
+      <c r="AA7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="AB7" s="96" t="s">
+      <c r="AB7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AC7" s="97" t="s">
+      <c r="AC7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AD7" s="95" t="s">
+      <c r="AD7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="AE7" s="102" t="s">
+      <c r="AE7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AF7" s="102" t="s">
+      <c r="AF7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AG7" s="102" t="s">
+      <c r="AG7" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AH7" s="102" t="s">
+      <c r="AH7" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="AI7" s="99" t="s">
+      <c r="AI7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AJ7" s="99" t="s">
+      <c r="AJ7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AK7" s="99" t="s">
+      <c r="AK7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="AL7" s="105" t="s">
+      <c r="AL7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AM7" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN7" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO7" s="103" t="s">
+      <c r="AM7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AP7" s="103" t="s">
+      <c r="AP7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AQ7" s="103" t="s">
+      <c r="AQ7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AR7" s="103" t="s">
+      <c r="AR7" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="AS7" s="107" t="s">
+      <c r="AS7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AT7" s="107" t="s">
+      <c r="AT7" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="AU7" s="107" t="s">
+      <c r="AU7" s="18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="11">
         <v>60</v>
       </c>
-      <c r="F8" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="81" t="s">
+      <c r="F8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="88" t="s">
+      <c r="J8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="89" t="s">
+      <c r="O8" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="85" t="s">
+      <c r="P8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="Q8" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="R8" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="T8" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="U8" s="91" t="s">
+      <c r="Q8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="V8" s="92" t="s">
+      <c r="V8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="W8" s="90" t="s">
+      <c r="W8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="X8" s="93" t="s">
+      <c r="X8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" s="93" t="s">
+      <c r="Y8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Z8" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA8" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB8" s="93" t="s">
+      <c r="Z8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AC8" s="93" t="s">
+      <c r="AC8" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="AD8" s="93" t="s">
+      <c r="AD8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="AE8" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF8" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG8" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH8" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI8" s="99" t="s">
+      <c r="AE8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI8" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="AJ8" s="102" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AK8" s="101" t="s">
+      <c r="AK8" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AL8" s="106" t="s">
+      <c r="AL8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AM8" s="106" t="s">
+      <c r="AM8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AN8" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO8" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP8" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ8" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR8" s="103" t="s">
+      <c r="AN8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR8" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="AS8" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT8" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU8" s="108" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:47" s="107" customFormat="1">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-      <c r="F9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="R9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="S9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="U9" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="V9" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="W9" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y9" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC9" s="99" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD9" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ9" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK9" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL9" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM9" s="106" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AR9" s="107" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT9" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU9" s="108" t="s">
+      <c r="AS8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU8" s="6" t="s">
         <v>63</v>
       </c>
     </row>
